--- a/data-raw/letters.xlsx
+++ b/data-raw/letters.xlsx
@@ -19,18 +19,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
-    <t>id,letter,vowel</t>
+    <t>id</t>
   </si>
   <si>
-    <t>1,a,TRUE</t>
+    <t>letter</t>
   </si>
   <si>
-    <t>2,b,FALSE</t>
+    <t>vowel</t>
   </si>
   <si>
-    <t>3,c,FALSE</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -837,30 +849,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
